--- a/Populating pptx files/02 Workflows/02_Replacement/ppt/embeddings/Microsoft_Excel_Worksheet.xlsx
+++ b/Populating pptx files/02 Workflows/02_Replacement/ppt/embeddings/Microsoft_Excel_Worksheet.xlsx
@@ -1,35 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr documentId="13_ncr:801_{99721A56-AFA9-4717-A7B5-6814D5EB8B2C}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A59D57C7-92E7-4CD3-83A3-DF5DCB92D65D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="3300" windowWidth="10120" xWindow="2410" xr2:uid="{1ABA4CAB-6F29-4413-A89B-7D1474D7F83B}" yWindow="2320"/>
+    <workbookView xWindow="2410" yWindow="2320" windowWidth="10120" windowHeight="3300" xr2:uid="{1ABA4CAB-6F29-4413-A89B-7D1474D7F83B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
   <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Series 1</t>
   </si>
@@ -47,18 +39,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>{5}</t>
-  </si>
-  <si>
-    <t>{6}</t>
-  </si>
-  <si>
-    <t>{7}</t>
-  </si>
-  <si>
-    <t>{8}</t>
   </si>
 </sst>
 </file>
@@ -92,18 +72,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="1" xfId="0"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -421,63 +399,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F873DB-0B62-4051-9FDF-AEB6A05190B4}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Series 1</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Category 1</t>
-        </is>
-      </c>
-      <c r="B2" s="2">
-        <v>6</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1001</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Category 2</t>
-        </is>
-      </c>
-      <c r="B3" s="2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Category 3</t>
-        </is>
-      </c>
-      <c r="B4" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Category 4</t>
-        </is>
-      </c>
-      <c r="B5" s="2">
-        <v>2</v>
+      <c r="B5">
+        <v>1004</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>